--- a/biology/Botanique/Spergularia_media/Spergularia_media.xlsx
+++ b/biology/Botanique/Spergularia_media/Spergularia_media.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spergularia media, la Spergulaire marginée ou Spergulaire maritime, est une plante halophile de la famille des Caryophyllacées.
-La floraison a lieu d'avril à août[2].
+La floraison a lieu d'avril à août.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat se trouve dans les Marais salants, roches et terres exposées aux embruns.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On la rencontre le long des côtes de la Manche, de l'Atlantique et de la Méditerranée.
 </t>
@@ -574,18 +590,20 @@
           <t>Liste des sous-espèces  et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (17 octobre 2015)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (17 octobre 2015) :
 sous-espèce Spergularia media subsp. angustata
 sous-espèce Spergularia media subsp. intermedia
 sous-espèce Spergularia media subsp. media
 sous-espèce Spergularia media subsp. occidentalis
 sous-espèce Spergularia media subsp. sauvagei
 sous-espèce Spergularia media subsp. tunetana
-Selon Tropicos                                           (17 octobre 2015)[4] :
+Selon Tropicos                                           (17 octobre 2015) :
 variété Spergularia media var. media
-Selon World Register of Marine Species                               (17 octobre 2015)[5] :
+Selon World Register of Marine Species                               (17 octobre 2015) :
 sous-espèce Spergularia media subsp. angustata (Clavaud) Kerguélen &amp; Lambinon</t>
         </is>
       </c>
